--- a/实战资料/211125-前端座位表(实战).xlsx
+++ b/实战资料/211125-前端座位表(实战).xlsx
@@ -180,9 +180,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -256,6 +256,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
@@ -269,11 +274,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -307,14 +307,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,128 +443,14 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="44">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,13 +524,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,169 +662,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,6 +797,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -838,6 +817,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,30 +886,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -891,39 +894,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -935,7 +905,7 @@
     <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -944,137 +914,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1120,19 +1090,22 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1150,7 +1123,7 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1180,7 +1153,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1189,7 +1162,7 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1198,88 +1171,88 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1678,10 +1651,10 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="35">
+      <c r="L2" s="36">
         <v>1</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="37" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1690,7 +1663,7 @@
       <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="55" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -1704,7 +1677,7 @@
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="68" t="s">
+      <c r="I3" s="69" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -1713,10 +1686,10 @@
       <c r="K3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="36">
         <v>2</v>
       </c>
-      <c r="M3" s="40"/>
+      <c r="M3" s="41"/>
     </row>
     <row r="4" customHeight="1" spans="1:13">
       <c r="A4" s="10"/>
@@ -1732,11 +1705,11 @@
       <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="58" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="14"/>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="58" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="7" t="s">
@@ -1746,17 +1719,17 @@
         <v>17</v>
       </c>
       <c r="K4" s="7"/>
-      <c r="L4" s="35">
+      <c r="L4" s="36">
         <v>3</v>
       </c>
-      <c r="M4" s="40"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="10"/>
       <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="54"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
@@ -1779,16 +1752,16 @@
       <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="36">
         <v>4</v>
       </c>
-      <c r="M5" s="43"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" customHeight="1" spans="1:13">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="23">
         <v>5</v>
       </c>
       <c r="C6" s="7"/>
@@ -1808,26 +1781,26 @@
       <c r="I6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="54" t="s">
+      <c r="J6" s="55" t="s">
         <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="36">
         <v>5</v>
       </c>
-      <c r="M6" s="36" t="s">
+      <c r="M6" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:13">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23">
         <v>6</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="58" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1849,65 +1822,65 @@
       <c r="K7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="36">
         <v>6</v>
       </c>
-      <c r="M7" s="40"/>
+      <c r="M7" s="41"/>
     </row>
     <row r="8" customHeight="1" spans="1:13">
-      <c r="A8" s="27"/>
-      <c r="B8" s="22">
+      <c r="A8" s="28"/>
+      <c r="B8" s="23">
         <v>7</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
       <c r="G8" s="14"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="57" t="s">
+      <c r="I8" s="46"/>
+      <c r="J8" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="45"/>
-      <c r="L8" s="35">
+      <c r="K8" s="46"/>
+      <c r="L8" s="36">
         <v>7</v>
       </c>
-      <c r="M8" s="43"/>
+      <c r="M8" s="44"/>
     </row>
     <row r="9" customHeight="1" spans="1:13">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="48"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="49"/>
     </row>
     <row r="10" customHeight="1" spans="1:13">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1938,11 +1911,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="56"/>
-    <col min="2" max="2" width="6.66666666666667" style="56" customWidth="1"/>
-    <col min="3" max="12" width="10.6666666666667" style="56" customWidth="1"/>
-    <col min="13" max="13" width="6.66666666666667" style="56" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="56"/>
+    <col min="1" max="1" width="9" style="57"/>
+    <col min="2" max="2" width="6.66666666666667" style="57" customWidth="1"/>
+    <col min="3" max="12" width="10.6666666666667" style="57" customWidth="1"/>
+    <col min="13" max="13" width="6.66666666666667" style="57" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="57"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:14">
@@ -1961,7 +1934,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="58"/>
+      <c r="N1" s="59"/>
     </row>
     <row r="2" customHeight="1" spans="1:14">
       <c r="A2" s="1" t="s">
@@ -1979,7 +1952,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="58"/>
+      <c r="N2" s="59"/>
     </row>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="10" t="s">
@@ -1989,23 +1962,23 @@
         <v>7</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="4">
         <v>7</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="58"/>
+      <c r="N3" s="59"/>
     </row>
     <row r="4" customHeight="1" spans="1:14">
       <c r="A4" s="10"/>
@@ -2018,31 +1991,31 @@
       <c r="D4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="61" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="59"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="60"/>
+      <c r="K4" s="61"/>
       <c r="L4" s="4">
         <v>6</v>
       </c>
       <c r="M4" s="10"/>
-      <c r="N4" s="58"/>
+      <c r="N4" s="59"/>
     </row>
     <row r="5" customHeight="1" spans="1:14">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="4">
         <v>5</v>
       </c>
@@ -2058,22 +2031,22 @@
       <c r="F5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="59"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="60"/>
+      <c r="K5" s="61"/>
       <c r="L5" s="4">
         <v>5</v>
       </c>
-      <c r="M5" s="61"/>
-      <c r="N5" s="58"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="59"/>
     </row>
     <row r="6" customHeight="1" spans="1:14">
       <c r="A6" s="3" t="s">
@@ -2085,51 +2058,51 @@
       <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="63" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="59"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="60" t="s">
+      <c r="J6" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="60"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="4">
         <v>4</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="58"/>
+      <c r="N6" s="59"/>
     </row>
     <row r="7" customHeight="1" spans="1:14">
       <c r="A7" s="10"/>
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="62"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="63" t="s">
+      <c r="G7" s="60"/>
+      <c r="H7" s="64" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -2145,7 +2118,7 @@
         <v>3</v>
       </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="58"/>
+      <c r="N7" s="59"/>
     </row>
     <row r="8" customHeight="1" spans="1:14">
       <c r="A8" s="10"/>
@@ -2162,14 +2135,14 @@
         <v>8</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="59"/>
+      <c r="G8" s="60"/>
       <c r="H8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="60" t="s">
+      <c r="I8" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="60" t="s">
+      <c r="J8" s="61" t="s">
         <v>5</v>
       </c>
       <c r="K8" s="7" t="s">
@@ -2179,20 +2152,20 @@
         <v>2</v>
       </c>
       <c r="M8" s="10"/>
-      <c r="N8" s="58"/>
+      <c r="N8" s="59"/>
     </row>
     <row r="9" customHeight="1" spans="1:14">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="4">
         <v>1</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65" t="s">
+      <c r="E9" s="65"/>
+      <c r="F9" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="66"/>
+      <c r="G9" s="67"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -2200,42 +2173,42 @@
       <c r="L9" s="4">
         <v>1</v>
       </c>
-      <c r="M9" s="61"/>
-      <c r="N9" s="58"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="59"/>
     </row>
     <row r="10" customHeight="1" spans="1:14">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="58"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="59"/>
     </row>
     <row r="11" customHeight="1" spans="1:14">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2260,8 +2233,8 @@
   <sheetPr/>
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="32" customHeight="1"/>
@@ -2282,7 +2255,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="34"/>
+      <c r="N1" s="35"/>
     </row>
     <row r="2" customHeight="1" spans="1:21">
       <c r="A2" s="3" t="s">
@@ -2302,32 +2275,32 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="35">
+      <c r="L2" s="36">
         <v>1</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="34"/>
+      <c r="N2" s="35"/>
       <c r="O2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="50" t="s">
+      <c r="R2" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="51" t="s">
+      <c r="S2" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="T2" s="52" t="s">
+      <c r="T2" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="U2" s="53" t="s">
+      <c r="U2" s="54" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2350,39 +2323,39 @@
       <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="36">
         <v>2</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="41" t="s">
+      <c r="M3" s="41"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="41" t="s">
+      <c r="Q3" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="R3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="41" t="s">
+      <c r="S3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="41" t="s">
+      <c r="T3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="41" t="s">
+      <c r="U3" s="42" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2395,30 +2368,30 @@
       <c r="D4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="18" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="14"/>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4" s="36">
         <v>3</v>
       </c>
-      <c r="M4" s="40"/>
-      <c r="N4" s="34"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="35"/>
       <c r="O4" s="7" t="s">
         <v>19</v>
       </c>
@@ -2428,7 +2401,7 @@
       <c r="Q4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="54" t="s">
+      <c r="R4" s="55" t="s">
         <v>4</v>
       </c>
       <c r="S4" s="7" t="s">
@@ -2446,36 +2419,36 @@
       <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="14"/>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="36">
         <v>4</v>
       </c>
-      <c r="M5" s="43"/>
-      <c r="N5" s="34"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="35"/>
       <c r="O5" s="7" t="s">
         <v>12</v>
       </c>
@@ -2489,7 +2462,7 @@
         <v>11</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="T5" s="7" t="s">
         <v>22</v>
@@ -2499,42 +2472,42 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:21">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="23">
         <v>5</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="24" t="s">
         <v>37</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="25" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="7"/>
-      <c r="L6" s="35">
+      <c r="L6" s="36">
         <v>5</v>
       </c>
-      <c r="M6" s="36" t="s">
+      <c r="M6" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="34"/>
+      <c r="N6" s="35"/>
       <c r="O6" s="7" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>34</v>
@@ -2556,47 +2529,47 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:21">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23">
         <v>6</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="27" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="K7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="36">
         <v>6</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="34"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="35"/>
       <c r="O7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" s="54" t="s">
+      <c r="Q7" s="55" t="s">
         <v>31</v>
       </c>
       <c r="R7" s="7" t="s">
@@ -2613,84 +2586,84 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:21">
-      <c r="A8" s="27"/>
-      <c r="B8" s="22">
+      <c r="A8" s="28"/>
+      <c r="B8" s="23">
         <v>7</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
       <c r="G8" s="14"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="35">
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="36">
         <v>7</v>
       </c>
-      <c r="M8" s="43"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="47"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="48"/>
       <c r="P8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
     </row>
     <row r="9" customHeight="1" spans="1:14">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="34"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="35"/>
     </row>
     <row r="10" customHeight="1" spans="1:14">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="34"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="35"/>
     </row>
     <row r="11" customHeight="1" spans="1:17">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="Q11" s="55"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="Q11" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="9">
